--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43316,6 +43316,41 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,43 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43458,6 +43458,41 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43493,6 +43493,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43530,6 +43530,41 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43565,6 +43565,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43600,6 +43600,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43635,6 +43635,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43670,6 +43670,43 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43707,6 +43707,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43744,6 +43744,78 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43816,6 +43816,78 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43888,6 +43888,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43925,6 +43925,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43960,6 +43960,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43995,6 +43995,41 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>57000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,6 +44030,78 @@
         <v>57000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44102,6 +44102,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44137,6 +44137,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91074,6 +91074,41 @@
         </is>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91109,6 +91109,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>160800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2560"/>
+  <dimension ref="A1:I2561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91144,6 +91144,43 @@
         <v>160800</v>
       </c>
     </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2561" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91181,6 +91181,43 @@
         </is>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2562" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91218,6 +91218,41 @@
         </is>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>64500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91253,6 +91253,41 @@
         <v>64500</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91288,6 +91288,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2565" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91325,6 +91325,41 @@
         </is>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>41200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91360,6 +91360,41 @@
         <v>41200</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>183000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91395,6 +91395,41 @@
         <v>183000</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91430,6 +91430,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91465,6 +91465,43 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2570" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91502,6 +91502,41 @@
         </is>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91537,6 +91537,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7773.xlsx
+++ b/data/7773.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91572,6 +91572,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>EPMB</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
